--- a/Datacamp Joining Data with Pandas/ten_yr.xlsx
+++ b/Datacamp Joining Data with Pandas/ten_yr.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordanstevens/Documents/Python/Pandas/Joining Data with Pandas - Datacamp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordanstevens/Documents/Python/Datacamp-Files-Git/Datacamp Joining Data with Pandas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F2485D5-4333-3D4E-A9E9-FFD1A9DA8846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB9A046-F091-5C48-801F-C667696BEB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1340" yWindow="2200" windowWidth="25540" windowHeight="14760" xr2:uid="{6BDC539A-7AA0-104A-84C3-061415FA451F}"/>
   </bookViews>
@@ -56,9 +56,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -90,7 +87,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,7 +405,7 @@
   <dimension ref="A1:AJ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -540,82 +537,82 @@
         <v>-4.0000000000000001E-3</v>
       </c>
       <c r="F2">
-        <v>-8.0000000000000106E-3</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="G2">
-        <v>-1.06E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="H2">
-        <v>-1.32E-2</v>
+        <v>-5.8999999999999997E-2</v>
       </c>
       <c r="I2">
-        <v>-1.5800000000000002E-2</v>
+        <v>-4.5999999999999999E-2</v>
       </c>
       <c r="J2">
-        <v>-1.8399999999999899E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="K2">
-        <v>-2.0999999999999901E-2</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="L2">
-        <v>-2.3599999999999899E-2</v>
+        <v>-0.115</v>
       </c>
       <c r="M2">
-        <v>-2.61999999999999E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="N2">
-        <v>-2.8799999999999899E-2</v>
+        <v>-9.4E-2</v>
       </c>
       <c r="O2">
-        <v>-3.13999999999999E-2</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="P2">
-        <v>-3.3999999999999898E-2</v>
+        <v>-2.1000000000000001E-2</v>
       </c>
       <c r="Q2">
-        <v>-3.6599999999999903E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="R2">
-        <v>-3.9199999999999902E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="S2">
-        <v>-4.17999999999999E-2</v>
+        <v>-2.1000000000000001E-2</v>
       </c>
       <c r="T2">
-        <v>-4.4399999999999898E-2</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>-4.6999999999999903E-2</v>
+        <v>-2.4E-2</v>
       </c>
       <c r="V2">
-        <v>-4.9599999999999901E-2</v>
+        <v>-2.5999999999999999E-2</v>
       </c>
       <c r="W2">
-        <v>-5.2199999999999899E-2</v>
+        <v>0.05</v>
       </c>
       <c r="X2">
-        <v>-5.47999999999998E-2</v>
+        <v>-0.26800000000000002</v>
       </c>
       <c r="Y2">
-        <v>-5.7399999999999798E-2</v>
+        <v>-0.23599999999999999</v>
       </c>
       <c r="Z2">
-        <v>-5.9999999999999797E-2</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="AA2">
-        <v>-6.2599999999999795E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="AB2">
-        <v>-6.51999999999998E-2</v>
+        <v>-0.10299999999999999</v>
       </c>
       <c r="AC2">
-        <v>-6.7799999999999805E-2</v>
+        <v>0.191</v>
       </c>
       <c r="AD2">
-        <v>-7.0399999999999796E-2</v>
+        <v>0.107</v>
       </c>
       <c r="AE2">
-        <v>-7.2999999999999801E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="AF2">
         <v>-7.0000000000000001E-3</v>
@@ -650,82 +647,82 @@
         <v>3.1E-2</v>
       </c>
       <c r="F3">
-        <v>4.5499999999999999E-2</v>
+        <v>0.08</v>
       </c>
       <c r="G3">
-        <v>6.3200000000000006E-2</v>
+        <v>-2.1999999999999999E-2</v>
       </c>
       <c r="H3">
-        <v>8.09E-2</v>
+        <v>-0.06</v>
       </c>
       <c r="I3">
-        <v>9.8599999999999993E-2</v>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="J3">
-        <v>0.1163</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="K3">
-        <v>0.13400000000000001</v>
+        <v>-5.6000000000000001E-2</v>
       </c>
       <c r="L3">
-        <v>0.1517</v>
+        <v>-3.9E-2</v>
       </c>
       <c r="M3">
-        <v>0.1694</v>
+        <v>-5.2999999999999999E-2</v>
       </c>
       <c r="N3">
-        <v>0.18709999999999999</v>
+        <v>-2.3E-2</v>
       </c>
       <c r="O3">
-        <v>0.20480000000000001</v>
+        <v>-6.5000000000000002E-2</v>
       </c>
       <c r="P3">
-        <v>0.2225</v>
+        <v>0.05</v>
       </c>
       <c r="Q3">
-        <v>0.2402</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="R3">
-        <v>0.25790000000000002</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="S3">
-        <v>0.27560000000000001</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="T3">
-        <v>0.29330000000000001</v>
+        <v>-0.02</v>
       </c>
       <c r="U3">
-        <v>0.311</v>
+        <v>-4.4999999999999998E-2</v>
       </c>
       <c r="V3">
-        <v>0.32869999999999999</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="W3">
-        <v>0.34639999999999999</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="X3">
-        <v>0.36409999999999998</v>
+        <v>-0.27200000000000002</v>
       </c>
       <c r="Y3">
-        <v>0.38179999999999997</v>
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="Z3">
-        <v>0.39950000000000002</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="AA3">
-        <v>0.41720000000000002</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="AB3">
-        <v>0.43490000000000001</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="AC3">
-        <v>0.4526</v>
+        <v>0.187</v>
       </c>
       <c r="AD3">
-        <v>0.4703</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="AE3">
-        <v>0.48799999999999999</v>
+        <v>-6.2E-2</v>
       </c>
       <c r="AF3">
         <v>3.2000000000000001E-2</v>
@@ -760,82 +757,82 @@
         <v>-2E-3</v>
       </c>
       <c r="F4">
-        <v>2.1499999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="G4">
-        <v>2.9600000000000001E-2</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="H4">
-        <v>3.7699999999999997E-2</v>
+        <v>-5.1999999999999998E-2</v>
       </c>
       <c r="I4">
-        <v>4.58E-2</v>
+        <v>-4.2999999999999997E-2</v>
       </c>
       <c r="J4">
-        <v>5.3900000000000003E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="K4">
-        <v>6.2E-2</v>
+        <v>-0.108</v>
       </c>
       <c r="L4">
-        <v>7.0099999999999996E-2</v>
+        <v>-1E-3</v>
       </c>
       <c r="M4">
-        <v>7.8200000000000006E-2</v>
+        <v>-0.14599999999999999</v>
       </c>
       <c r="N4">
-        <v>8.6300000000000002E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="O4">
-        <v>9.4399999999999998E-2</v>
+        <v>-6.7000000000000004E-2</v>
       </c>
       <c r="P4">
-        <v>0.10249999999999999</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="Q4">
-        <v>0.1106</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="R4">
-        <v>0.1187</v>
+        <v>4.7E-2</v>
       </c>
       <c r="S4">
-        <v>0.1268</v>
+        <v>-2.3E-2</v>
       </c>
       <c r="T4">
-        <v>0.13489999999999999</v>
+        <v>-2E-3</v>
       </c>
       <c r="U4">
-        <v>0.14299999999999999</v>
+        <v>-0.13600000000000001</v>
       </c>
       <c r="V4">
-        <v>0.15110000000000001</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="W4">
-        <v>0.15920000000000001</v>
+        <v>-0.13800000000000001</v>
       </c>
       <c r="X4">
-        <v>0.1673</v>
+        <v>-0.30399999999999999</v>
       </c>
       <c r="Y4">
-        <v>0.1754</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="Z4">
-        <v>0.1835</v>
+        <v>0.217</v>
       </c>
       <c r="AA4">
-        <v>0.19159999999999999</v>
+        <v>-6.2E-2</v>
       </c>
       <c r="AB4">
-        <v>0.19969999999999999</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="AC4">
-        <v>0.20780000000000001</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="AD4">
-        <v>0.21590000000000001</v>
+        <v>0.123</v>
       </c>
       <c r="AE4">
-        <v>0.224</v>
+        <v>-5.5E-2</v>
       </c>
       <c r="AF4">
         <v>0.04</v>
@@ -870,82 +867,82 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="F5">
-        <v>8.2500000000000004E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="G5">
-        <v>0.1138</v>
+        <v>-5.1999999999999998E-2</v>
       </c>
       <c r="H5">
-        <v>0.14510000000000001</v>
+        <v>-4.9000000000000002E-2</v>
       </c>
       <c r="I5">
-        <v>0.1764</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="J5">
-        <v>0.2077</v>
+        <v>-2.3E-2</v>
       </c>
       <c r="K5">
-        <v>0.23899999999999999</v>
+        <v>-0.112</v>
       </c>
       <c r="L5">
-        <v>0.27029999999999998</v>
+        <v>1.6E-2</v>
       </c>
       <c r="M5">
-        <v>0.30159999999999998</v>
+        <v>-9.8000000000000004E-2</v>
       </c>
       <c r="N5">
-        <v>0.33289999999999997</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="O5">
-        <v>0.36420000000000002</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="P5">
-        <v>0.39550000000000002</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="Q5">
-        <v>0.42680000000000001</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="R5">
-        <v>0.45810000000000001</v>
+        <v>-1.7000000000000001E-2</v>
       </c>
       <c r="S5">
-        <v>0.4894</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.52070000000000005</v>
+        <v>-4.2000000000000003E-2</v>
       </c>
       <c r="U5">
-        <v>0.55200000000000005</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="V5">
-        <v>0.58330000000000004</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="W5">
-        <v>0.61460000000000004</v>
+        <v>-0.255</v>
       </c>
       <c r="X5">
-        <v>0.64590000000000003</v>
+        <v>-0.24099999999999999</v>
       </c>
       <c r="Y5">
-        <v>0.67720000000000002</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="Z5">
-        <v>0.70850000000000002</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="AA5">
-        <v>0.73980000000000001</v>
+        <v>-0.11700000000000001</v>
       </c>
       <c r="AB5">
-        <v>0.77110000000000001</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="AC5">
-        <v>0.8024</v>
+        <v>0.109</v>
       </c>
       <c r="AD5">
-        <v>0.8337</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="AE5">
-        <v>0.86499999999999999</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="AF5">
         <v>-2.9000000000000001E-2</v>
